--- a/MT_302.xlsx
+++ b/MT_302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Time</t>
   </si>
@@ -151,6 +151,96 @@
   </si>
   <si>
     <t>Water Lost</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Volume remaining</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Enhancement Factor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Water Lost</t>
+  </si>
+  <si>
+    <t>Acid Lost</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Volume remaining</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Enhancement Factor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Water Lost</t>
+  </si>
+  <si>
+    <t>Acid Lost</t>
   </si>
   <si>
     <t>NaOH required</t>
@@ -249,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -272,11 +362,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -293,6 +389,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,25 +418,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -561,16 +663,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -716,16 +818,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
